--- a/CAD_files/iscie2024_rotary_ip_LEGO_parts.xlsx
+++ b/CAD_files/iscie2024_rotary_ip_LEGO_parts.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\expository2024_iscie\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\expository2024_iscie\doc\cad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90180723-500D-47FF-971E-608BC2ABD772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1DACE-5C50-4B29-A75F-560F00F86A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1331" yWindow="1915" windowWidth="23665" windowHeight="12444"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="23665" windowHeight="12443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あああ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Technic, Liftarm Thin 1 x 5 - Axle Holes</t>
   </si>
@@ -104,9 +117,6 @@
   </si>
   <si>
     <t>Technic, Liftarm, Modified Triangle Thin 3 x 5 with Short Supports</t>
-  </si>
-  <si>
-    <t>Total qty</t>
   </si>
   <si>
     <t>デザインID</t>
@@ -318,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1285,14 +1295,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
@@ -1309,25 +1322,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1344,10 +1357,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
       <c r="G2">
         <v>38</v>
@@ -1371,10 +1384,10 @@
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1398,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
       </c>
       <c r="G4">
         <v>63</v>
@@ -1425,10 +1438,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -1452,10 +1465,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -1479,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
       </c>
       <c r="G7">
         <v>98</v>
@@ -1506,10 +1519,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -1533,10 +1546,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
       </c>
       <c r="G9">
         <v>38</v>
@@ -1560,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>128</v>
@@ -1587,10 +1600,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>128</v>
@@ -1614,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1641,10 +1654,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1668,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
       </c>
       <c r="G14">
         <v>46</v>
@@ -1695,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
       </c>
       <c r="G15">
         <v>16</v>
@@ -1722,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>13</v>
@@ -1749,10 +1762,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>68</v>
@@ -1764,7 +1777,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1776,10 +1789,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -1803,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
         <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
       </c>
       <c r="G19">
         <v>63</v>
@@ -1830,10 +1843,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
       </c>
       <c r="G20">
         <v>368</v>
@@ -1857,10 +1870,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -1884,10 +1897,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
         <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
       </c>
       <c r="G22">
         <v>38</v>
@@ -1901,46 +1914,39 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="3">
         <f>SUM(H2:H22)</f>
         <v>9682</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>146</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E18" r:id="rId16"/>
-    <hyperlink ref="E19" r:id="rId17"/>
-    <hyperlink ref="E20" r:id="rId18"/>
-    <hyperlink ref="E21" r:id="rId19"/>
-    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId21"/>
 </worksheet>
 </file>
--- a/CAD_files/iscie2024_rotary_ip_LEGO_parts.xlsx
+++ b/CAD_files/iscie2024_rotary_ip_LEGO_parts.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\expository2024_iscie\doc\cad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1DACE-5C50-4B29-A75F-560F00F86A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C7BBDC-E8E6-4A28-8F1E-F80A3A74722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="23665" windowHeight="12443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="992" yWindow="1576" windowWidth="23665" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="あああ" sheetId="1" r:id="rId1"/>
+    <sheet name="部品表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Technic, Liftarm Thin 1 x 5 - Axle Holes</t>
   </si>
@@ -120,13 +120,6 @@
   </si>
   <si>
     <t>デザインID</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>部品名</t>
-    <rPh sb="0" eb="3">
-      <t>ブヒンメイ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -322,6 +315,26 @@
   </si>
   <si>
     <t>テクニック リフトアーム - トライアングル タイプ２</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部品名（英語）</t>
+    <rPh sb="0" eb="3">
+      <t>ブヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部品名（日本語）</t>
+    <rPh sb="0" eb="3">
+      <t>ブヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホンゴ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -680,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -795,6 +808,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -927,18 +955,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -997,6 +1046,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569344</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2332006</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196E0717-4E86-C48B-4097-870F9D84EFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1345721" y="9566695"/>
+          <a:ext cx="7154172" cy="5365629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1305,619 +1403,622 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:A25"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>11478</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>11478</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" s="3">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7">
+        <f>E2*G2</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>2780</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>52</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <f>E3*G3</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>32014</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7">
+        <f>E4*G4</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>32034</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <f>E5*G5</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <f>E6*G6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>32269</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3">
+        <v>98</v>
+      </c>
+      <c r="H7" s="7">
+        <f>E7*G7</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>32316</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7">
+        <f>E8*G8</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>32524</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7">
+        <f>E9*G9</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>3708</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>128</v>
+      </c>
+      <c r="H10" s="7">
+        <f>E10*G10</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>3708</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
+        <v>128</v>
+      </c>
+      <c r="H11" s="7">
+        <f>E11*G11</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>42003</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7">
+        <f>E12*G12</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>43093</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2">
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <f>E13*G13</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>43857</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
+        <f>E14*G14</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>44294</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="3">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7">
+        <f>E15*G15</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>55013</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <f>E16*G16</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>55615</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7">
+        <f>E17*G17</f>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="3">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7">
+        <f>E18*G18</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>60485</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="3">
+        <v>63</v>
+      </c>
+      <c r="H19" s="7">
+        <f>E19*G19</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>64179</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>18</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="3">
+        <v>368</v>
+      </c>
+      <c r="H20" s="7">
+        <f>E20*G20</f>
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>6558</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="3">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7">
+        <f>E21*G21</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="35.35" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>99773</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="3">
         <v>38</v>
       </c>
-      <c r="H2" s="3">
-        <f>D2*G2</f>
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>2780</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H9" si="0">D3*G3</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>32014</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>63</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>32034</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>32269</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7">
-        <v>98</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>32316</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>32524</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>38</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>3708</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10">
-        <v>128</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" ref="H10:H22" si="1">D10*G10</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>3708</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11">
-        <v>128</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>42003</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>43093</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>43857</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <v>46</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>44294</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>55013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>55615</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17">
-        <v>68</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="1"/>
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>60485</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>64179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20">
-        <v>368</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="1"/>
-        <v>6624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>6558</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>99773</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22">
-        <v>38</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="1"/>
+      <c r="H22" s="7">
+        <f>E22*G22</f>
         <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H23" s="3"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="7">
         <f>SUM(H2:H22)</f>
         <v>9682</v>
       </c>
@@ -1925,28 +2026,29 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId21"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>